--- a/loss_statistics_lstm_versus_cnn_lstm.xlsx
+++ b/loss_statistics_lstm_versus_cnn_lstm.xlsx
@@ -65,6 +65,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -124,9 +125,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -259,78 +268,104 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.73"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="2" t="n">
         <v>0.000758860939531587</v>
       </c>
+      <c r="C2" s="3" t="n">
+        <v>0.000911727768252604</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="2" t="n">
         <v>0.000140053228221528</v>
       </c>
+      <c r="C3" s="3" t="n">
+        <v>0.000182569790044063</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="2" t="n">
         <v>0.00057587813353166</v>
       </c>
+      <c r="C4" s="3" t="n">
+        <v>0.000636487442534417</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="2" t="n">
         <v>0.0011601842707023</v>
       </c>
+      <c r="C5" s="3" t="n">
+        <v>0.00145924591924995</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="2" t="n">
         <v>0.00071406559436582</v>
       </c>
+      <c r="C6" s="3" t="n">
+        <v>0.000864890549564734</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="2" t="n">
         <v>0.00057587813353166</v>
       </c>
+      <c r="C7" s="3" t="n">
+        <v>0.000636487442534417</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <f aca="false">B3/B2</f>
+        <v>0.184557171051625</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <f aca="false">C3/C2</f>
+        <v>0.200245946653541</v>
       </c>
     </row>
   </sheetData>
